--- a/sprints/sprint3/Sprint3 Backlog & Burndown.xlsx
+++ b/sprints/sprint3/Sprint3 Backlog & Burndown.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Desktop\CS Courses\CS3212\SE2Project\UWG-SE2-Spring22-Team4\sprints\sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2455C219-7BE9-4523-8C9E-248C05DADBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C330CD3-AD1D-409A-8BAC-F746DB9DB718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-10910" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Related User Story</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Add chart for change in bodyweight over time</t>
   </si>
   <si>
-    <t>Add field for average workout duration time</t>
-  </si>
-  <si>
     <t>Create StatsPage UI</t>
   </si>
   <si>
@@ -127,13 +124,19 @@
     <t>Bodyweight over time</t>
   </si>
   <si>
-    <t>Add field for bodyweight update - send info automatically to server, update chart client-side</t>
-  </si>
-  <si>
     <t>Add fitness points field for exercises in JSON</t>
   </si>
   <si>
-    <t>Add field for effortLevel in Workout (Reps*fitness points) (CS, SS)</t>
+    <t>Add field for intensity (CS, SS)</t>
+  </si>
+  <si>
+    <t>Add field for workout duration time</t>
+  </si>
+  <si>
+    <t>Add field for bodyweight update</t>
+  </si>
+  <si>
+    <t>Wire StatsUI Graphs and data</t>
   </si>
 </sst>
 </file>
@@ -331,21 +334,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$25:$H$25</c:f>
+              <c:f>Sheet1!$D$19:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1390,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1447,18 +1450,26 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -1466,97 +1477,145 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
@@ -1564,33 +1623,49 @@
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
@@ -1598,204 +1673,194 @@
         <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1">
-        <v>3</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3">
+        <f>SUM(D3:D18)</f>
         <v>21</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-      <c r="B25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3">
-        <f>SUM(D3:D24)</f>
-        <v>27</v>
-      </c>
-      <c r="E25" s="3">
-        <f>SUM(E3:E24)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <f>SUM(F3:F24)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
-        <f>SUM(G3:G24)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <f>SUM(H3:H24)</f>
+      <c r="E19" s="3">
+        <f>SUM(E3:E18)</f>
+        <v>21</v>
+      </c>
+      <c r="F19" s="3">
+        <f>SUM(F3:F18)</f>
+        <v>7</v>
+      </c>
+      <c r="G19" s="3">
+        <f>SUM(G3:G18)</f>
+        <v>5</v>
+      </c>
+      <c r="H19" s="3">
+        <f>SUM(H3:H18)</f>
         <v>0</v>
       </c>
     </row>
